--- a/web/simulator/simulation_1.xlsx
+++ b/web/simulator/simulation_1.xlsx
@@ -1307,7 +1307,9 @@
           <t>Project Duration</t>
         </is>
       </c>
-      <c r="F16" s="43" t="inlineStr"/>
+      <c r="F16" s="43" t="n">
+        <v>10</v>
+      </c>
       <c r="G16" s="38" t="inlineStr">
         <is>
           <t>years</t>
@@ -1315,7 +1317,9 @@
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="F17" s="43" t="inlineStr"/>
+      <c r="F17" s="43" t="n">
+        <v>120</v>
+      </c>
       <c r="G17" s="38" t="inlineStr">
         <is>
           <t>months</t>
@@ -1384,20 +1388,16 @@
           <t>Actual Load Year 1</t>
         </is>
       </c>
-      <c r="F24" s="52" t="inlineStr">
-        <is>
-          <t>[Constants.AZA.Actual Load Year]</t>
-        </is>
+      <c r="F24" s="52" t="n">
+        <v>-0.01</v>
       </c>
       <c r="G24" s="49" t="inlineStr">
         <is>
           <t>MW</t>
         </is>
       </c>
-      <c r="H24" s="52" t="inlineStr">
-        <is>
-          <t>[Constants.AZA.Actual Load Year]</t>
-        </is>
+      <c r="H24" s="52" t="n">
+        <v>-0.01</v>
       </c>
       <c r="I24" s="51" t="inlineStr">
         <is>
@@ -1411,21 +1411,13 @@
           <t>Load Capacity Degredation</t>
         </is>
       </c>
-      <c r="F25" s="52" t="inlineStr">
-        <is>
-          <t>[Constants.AZA.Load Capacity Degradation]</t>
-        </is>
-      </c>
+      <c r="F25" s="52" t="inlineStr"/>
       <c r="G25" s="49" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H25" s="52" t="inlineStr">
-        <is>
-          <t>[Constants.AZA.Load Capacity Degradation]</t>
-        </is>
-      </c>
+      <c r="H25" s="52" t="inlineStr"/>
       <c r="I25" s="51" t="inlineStr">
         <is>
           <t>%</t>
@@ -1438,20 +1430,16 @@
           <t>Maxium DOD</t>
         </is>
       </c>
-      <c r="F26" s="52" t="inlineStr">
-        <is>
-          <t>[Constants.AZA.Maximum DOD]</t>
-        </is>
+      <c r="F26" s="52" t="n">
+        <v>1</v>
       </c>
       <c r="G26" s="53" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H26" s="52" t="inlineStr">
-        <is>
-          <t>[Constants.LFP.Maximum DOD]</t>
-        </is>
+      <c r="H26" s="52" t="n">
+        <v>1</v>
       </c>
       <c r="I26" s="55" t="inlineStr">
         <is>
@@ -1764,7 +1752,9 @@
           <t>%</t>
         </is>
       </c>
-      <c r="J49" s="43" t="inlineStr"/>
+      <c r="J49" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>%</t>
@@ -1802,6 +1792,9 @@
       <c r="H50" s="50" t="n">
         <v>0.01</v>
       </c>
+      <c r="J50" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L50" s="50" t="n">
         <v>10</v>
       </c>
@@ -1819,6 +1812,9 @@
       <c r="H51" s="50" t="n">
         <v>0.26</v>
       </c>
+      <c r="J51" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L51" s="50" t="n">
         <v>10.333</v>
       </c>
@@ -1836,6 +1832,9 @@
       <c r="H52" s="50" t="n">
         <v>0.509</v>
       </c>
+      <c r="J52" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L52" s="50" t="n">
         <v>10.667</v>
       </c>
@@ -1853,6 +1852,9 @@
       <c r="H53" s="50" t="n">
         <v>0.758</v>
       </c>
+      <c r="J53" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L53" s="50" t="n">
         <v>11</v>
       </c>
@@ -1870,6 +1872,9 @@
       <c r="H54" s="50" t="n">
         <v>1.008</v>
       </c>
+      <c r="J54" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L54" s="50" t="n">
         <v>11.333</v>
       </c>
@@ -1887,6 +1892,9 @@
       <c r="H55" s="50" t="n">
         <v>1.258</v>
       </c>
+      <c r="J55" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L55" s="50" t="n">
         <v>11.667</v>
       </c>
@@ -1904,6 +1912,9 @@
       <c r="H56" s="50" t="n">
         <v>1.507</v>
       </c>
+      <c r="J56" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L56" s="50" t="n">
         <v>12</v>
       </c>
@@ -1921,6 +1932,9 @@
       <c r="H57" s="50" t="n">
         <v>1.756</v>
       </c>
+      <c r="J57" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L57" s="50" t="n">
         <v>12.333</v>
       </c>
@@ -1938,6 +1952,9 @@
       <c r="H58" s="50" t="n">
         <v>2.006</v>
       </c>
+      <c r="J58" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L58" s="50" t="n">
         <v>12.667</v>
       </c>
@@ -1955,6 +1972,9 @@
       <c r="H59" s="50" t="n">
         <v>2.255</v>
       </c>
+      <c r="J59" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L59" s="50" t="n">
         <v>13</v>
       </c>
@@ -1972,6 +1992,9 @@
       <c r="H60" s="50" t="n">
         <v>2.505</v>
       </c>
+      <c r="J60" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L60" s="50" t="n">
         <v>13.333</v>
       </c>
@@ -1989,6 +2012,9 @@
       <c r="H61" s="50" t="n">
         <v>2.754</v>
       </c>
+      <c r="J61" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L61" s="50" t="n">
         <v>13.667</v>
       </c>
@@ -2006,6 +2032,9 @@
       <c r="H62" s="50" t="n">
         <v>3.004</v>
       </c>
+      <c r="J62" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L62" s="50" t="n">
         <v>14</v>
       </c>
@@ -2023,6 +2052,9 @@
       <c r="H63" s="50" t="n">
         <v>3.253</v>
       </c>
+      <c r="J63" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L63" s="50" t="n">
         <v>14.333</v>
       </c>
@@ -2040,6 +2072,9 @@
       <c r="H64" s="50" t="n">
         <v>3.503</v>
       </c>
+      <c r="J64" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L64" s="50" t="n">
         <v>14.667</v>
       </c>
@@ -2057,6 +2092,9 @@
       <c r="H65" s="50" t="n">
         <v>3.752</v>
       </c>
+      <c r="J65" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L65" s="50" t="n">
         <v>15</v>
       </c>
@@ -2074,6 +2112,9 @@
       <c r="H66" s="50" t="n">
         <v>4.002</v>
       </c>
+      <c r="J66" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L66" s="50" t="n">
         <v>15.333</v>
       </c>
@@ -2091,6 +2132,9 @@
       <c r="H67" s="50" t="n">
         <v>4.252</v>
       </c>
+      <c r="J67" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L67" s="50" t="n">
         <v>15.667</v>
       </c>
@@ -2108,6 +2152,9 @@
       <c r="H68" s="50" t="n">
         <v>4.501</v>
       </c>
+      <c r="J68" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L68" s="50" t="n">
         <v>16</v>
       </c>
@@ -2125,6 +2172,9 @@
       <c r="H69" s="50" t="n">
         <v>4.75</v>
       </c>
+      <c r="J69" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L69" s="50" t="n">
         <v>16.333</v>
       </c>
@@ -2142,6 +2192,9 @@
       <c r="H70" s="50" t="n">
         <v>5</v>
       </c>
+      <c r="J70" s="43" t="n">
+        <v>-0.713469919350799</v>
+      </c>
       <c r="L70" s="50" t="n">
         <v>16.667</v>
       </c>
@@ -2158,6 +2211,9 @@
       </c>
       <c r="H71" s="50" t="n">
         <v>5.249</v>
+      </c>
+      <c r="J71" s="43" t="n">
+        <v>-0.713469919350799</v>
       </c>
       <c r="L71" s="50" t="n">
         <v>17</v>
@@ -4252,7 +4308,9 @@
           <t>$</t>
         </is>
       </c>
-      <c r="H145" s="48" t="inlineStr"/>
+      <c r="H145" s="48" t="n">
+        <v>72.33336363636363</v>
+      </c>
       <c r="I145" s="60" t="inlineStr">
         <is>
           <t>$</t>

--- a/web/simulator/simulation_1.xlsx
+++ b/web/simulator/simulation_1.xlsx
@@ -1307,7 +1307,9 @@
           <t>Project Duration</t>
         </is>
       </c>
-      <c r="F16" s="43" t="inlineStr"/>
+      <c r="F16" s="43" t="n">
+        <v>10</v>
+      </c>
       <c r="G16" s="38" t="inlineStr">
         <is>
           <t>years</t>
@@ -1315,7 +1317,9 @@
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="F17" s="43" t="inlineStr"/>
+      <c r="F17" s="43" t="n">
+        <v>120</v>
+      </c>
       <c r="G17" s="38" t="inlineStr">
         <is>
           <t>months</t>
@@ -1481,7 +1485,9 @@
           <t>Net Present CAPEX (@ project year 1)</t>
         </is>
       </c>
-      <c r="F32" s="59" t="inlineStr"/>
+      <c r="F32" s="59" t="n">
+        <v>141222455.9351</v>
+      </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -1500,7 +1506,9 @@
           <t>Net Present OPEX (@ project year 1)</t>
         </is>
       </c>
-      <c r="F33" s="59" t="inlineStr"/>
+      <c r="F33" s="59" t="n">
+        <v>43215027.6896</v>
+      </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -1519,7 +1527,9 @@
           <t>Net Present Cost (@ project year 1)</t>
         </is>
       </c>
-      <c r="F34" s="59" t="inlineStr"/>
+      <c r="F34" s="59" t="n">
+        <v>201280415.7193</v>
+      </c>
       <c r="G34" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -1538,7 +1548,9 @@
           <t>LCOSE Levelized Cost of Stablized Electricity</t>
         </is>
       </c>
-      <c r="F35" s="59" t="inlineStr"/>
+      <c r="F35" s="59" t="n">
+        <v>186.3708</v>
+      </c>
       <c r="G35" s="60" t="inlineStr">
         <is>
           <t>$/kWh</t>
@@ -1752,7 +1764,9 @@
           <t>%</t>
         </is>
       </c>
-      <c r="J49" s="43" t="inlineStr"/>
+      <c r="J49" s="43" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>%</t>
@@ -1790,6 +1804,9 @@
       <c r="H50" t="n">
         <v>0.01</v>
       </c>
+      <c r="J50" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L50" t="n">
         <v>10</v>
       </c>
@@ -1807,6 +1824,9 @@
       <c r="H51" t="n">
         <v>0.26</v>
       </c>
+      <c r="J51" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L51" t="n">
         <v>10.333</v>
       </c>
@@ -1824,6 +1844,9 @@
       <c r="H52" t="n">
         <v>0.509</v>
       </c>
+      <c r="J52" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L52" t="n">
         <v>10.667</v>
       </c>
@@ -1841,6 +1864,9 @@
       <c r="H53" t="n">
         <v>0.758</v>
       </c>
+      <c r="J53" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L53" t="n">
         <v>11</v>
       </c>
@@ -1858,6 +1884,9 @@
       <c r="H54" t="n">
         <v>1.008</v>
       </c>
+      <c r="J54" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L54" t="n">
         <v>11.333</v>
       </c>
@@ -1875,6 +1904,9 @@
       <c r="H55" t="n">
         <v>1.258</v>
       </c>
+      <c r="J55" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L55" t="n">
         <v>11.667</v>
       </c>
@@ -1892,6 +1924,9 @@
       <c r="H56" t="n">
         <v>1.507</v>
       </c>
+      <c r="J56" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L56" t="n">
         <v>12</v>
       </c>
@@ -1909,6 +1944,9 @@
       <c r="H57" t="n">
         <v>1.756</v>
       </c>
+      <c r="J57" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L57" t="n">
         <v>12.333</v>
       </c>
@@ -1926,6 +1964,9 @@
       <c r="H58" t="n">
         <v>2.006</v>
       </c>
+      <c r="J58" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L58" t="n">
         <v>12.667</v>
       </c>
@@ -1943,6 +1984,9 @@
       <c r="H59" t="n">
         <v>2.255</v>
       </c>
+      <c r="J59" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L59" t="n">
         <v>13</v>
       </c>
@@ -1960,6 +2004,9 @@
       <c r="H60" t="n">
         <v>2.505</v>
       </c>
+      <c r="J60" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L60" t="n">
         <v>13.333</v>
       </c>
@@ -1977,6 +2024,9 @@
       <c r="H61" t="n">
         <v>2.754</v>
       </c>
+      <c r="J61" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L61" t="n">
         <v>13.667</v>
       </c>
@@ -1994,6 +2044,9 @@
       <c r="H62" t="n">
         <v>3.004</v>
       </c>
+      <c r="J62" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L62" t="n">
         <v>14</v>
       </c>
@@ -2011,6 +2064,9 @@
       <c r="H63" t="n">
         <v>3.253</v>
       </c>
+      <c r="J63" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L63" t="n">
         <v>14.333</v>
       </c>
@@ -2028,6 +2084,9 @@
       <c r="H64" t="n">
         <v>3.503</v>
       </c>
+      <c r="J64" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L64" t="n">
         <v>14.667</v>
       </c>
@@ -2045,6 +2104,9 @@
       <c r="H65" t="n">
         <v>3.752</v>
       </c>
+      <c r="J65" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L65" t="n">
         <v>15</v>
       </c>
@@ -2062,6 +2124,9 @@
       <c r="H66" t="n">
         <v>4.002</v>
       </c>
+      <c r="J66" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L66" t="n">
         <v>15.333</v>
       </c>
@@ -2079,6 +2144,9 @@
       <c r="H67" t="n">
         <v>4.252</v>
       </c>
+      <c r="J67" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L67" t="n">
         <v>15.667</v>
       </c>
@@ -2096,6 +2164,9 @@
       <c r="H68" t="n">
         <v>4.501</v>
       </c>
+      <c r="J68" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L68" t="n">
         <v>16</v>
       </c>
@@ -2113,6 +2184,9 @@
       <c r="H69" t="n">
         <v>4.75</v>
       </c>
+      <c r="J69" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L69" t="n">
         <v>16.333</v>
       </c>
@@ -2130,6 +2204,9 @@
       <c r="H70" t="n">
         <v>5</v>
       </c>
+      <c r="J70" t="n">
+        <v>-0.7135</v>
+      </c>
       <c r="L70" t="n">
         <v>16.667</v>
       </c>
@@ -2146,6 +2223,9 @@
       </c>
       <c r="H71" t="n">
         <v>5.249</v>
+      </c>
+      <c r="J71" t="n">
+        <v>-0.7135</v>
       </c>
       <c r="L71" t="n">
         <v>17</v>
@@ -3823,7 +3903,9 @@
           <t>years</t>
         </is>
       </c>
-      <c r="H124" s="83" t="inlineStr"/>
+      <c r="H124" s="83" t="n">
+        <v>2244607.3627</v>
+      </c>
       <c r="I124" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -3916,7 +3998,9 @@
           <t>years</t>
         </is>
       </c>
-      <c r="H127" s="83" t="inlineStr"/>
+      <c r="H127" s="83" t="n">
+        <v>5985.6196</v>
+      </c>
       <c r="I127" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -4138,7 +4222,9 @@
           <t>Annual System Monitoring cost</t>
         </is>
       </c>
-      <c r="F138" s="48" t="inlineStr"/>
+      <c r="F138" s="48" t="n">
+        <v>28244491.187</v>
+      </c>
       <c r="G138" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -4177,7 +4263,9 @@
           <t>Annual Insurance Cost</t>
         </is>
       </c>
-      <c r="F140" s="59" t="inlineStr"/>
+      <c r="F140" s="59" t="n">
+        <v>14122245.5935</v>
+      </c>
       <c r="G140" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -4234,7 +4322,9 @@
           <t>Labor cost</t>
         </is>
       </c>
-      <c r="F145" s="48" t="inlineStr"/>
+      <c r="F145" s="48" t="n">
+        <v>72.3334</v>
+      </c>
       <c r="G145" s="60" t="inlineStr">
         <is>
           <t>$</t>

--- a/web/simulator/simulation_1.xlsx
+++ b/web/simulator/simulation_1.xlsx
@@ -1307,9 +1307,7 @@
           <t>Project Duration</t>
         </is>
       </c>
-      <c r="F16" s="43" t="n">
-        <v>10</v>
-      </c>
+      <c r="F16" s="43" t="inlineStr"/>
       <c r="G16" s="38" t="inlineStr">
         <is>
           <t>years</t>
@@ -1317,9 +1315,7 @@
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="F17" s="43" t="n">
-        <v>120</v>
-      </c>
+      <c r="F17" s="43" t="inlineStr"/>
       <c r="G17" s="38" t="inlineStr">
         <is>
           <t>months</t>
@@ -1486,14 +1482,16 @@
         </is>
       </c>
       <c r="F32" s="59" t="n">
-        <v>141222455.9351</v>
+        <v>141222455.9356</v>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H32" s="59" t="inlineStr"/>
+      <c r="H32" s="59" t="n">
+        <v>141222455.9356</v>
+      </c>
       <c r="I32" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -1507,14 +1505,16 @@
         </is>
       </c>
       <c r="F33" s="59" t="n">
-        <v>43215027.6896</v>
+        <v>43215027.6898</v>
       </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H33" s="59" t="inlineStr"/>
+      <c r="H33" s="59" t="n">
+        <v>43215027.6898</v>
+      </c>
       <c r="I33" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -1528,14 +1528,16 @@
         </is>
       </c>
       <c r="F34" s="59" t="n">
-        <v>201280415.7193</v>
+        <v>201280415.7203</v>
       </c>
       <c r="G34" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H34" s="59" t="inlineStr"/>
+      <c r="H34" s="59" t="n">
+        <v>201280415.7203</v>
+      </c>
       <c r="I34" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -1556,7 +1558,9 @@
           <t>$/kWh</t>
         </is>
       </c>
-      <c r="H35" s="59" t="inlineStr"/>
+      <c r="H35" s="59" t="n">
+        <v>186.3708</v>
+      </c>
       <c r="I35" s="60" t="inlineStr">
         <is>
           <t>$/kWh</t>
@@ -3917,7 +3921,9 @@
           <t>years</t>
         </is>
       </c>
-      <c r="L124" s="83" t="inlineStr"/>
+      <c r="L124" s="83" t="n">
+        <v>2244607.3627</v>
+      </c>
       <c r="M124" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -4012,7 +4018,9 @@
           <t>years</t>
         </is>
       </c>
-      <c r="L127" s="83" t="inlineStr"/>
+      <c r="L127" s="83" t="n">
+        <v>5985.6196</v>
+      </c>
       <c r="M127" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -4223,14 +4231,16 @@
         </is>
       </c>
       <c r="F138" s="48" t="n">
-        <v>28244491.187</v>
+        <v>28244491.1871</v>
       </c>
       <c r="G138" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H138" s="48" t="inlineStr"/>
+      <c r="H138" s="48" t="n">
+        <v>28244491.1871</v>
+      </c>
       <c r="I138" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -4264,14 +4274,16 @@
         </is>
       </c>
       <c r="F140" s="59" t="n">
-        <v>14122245.5935</v>
+        <v>14122245.5936</v>
       </c>
       <c r="G140" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H140" s="59" t="inlineStr"/>
+      <c r="H140" s="59" t="n">
+        <v>14122245.5936</v>
+      </c>
       <c r="I140" s="60" t="inlineStr">
         <is>
           <t>$</t>
@@ -4330,7 +4342,9 @@
           <t>$</t>
         </is>
       </c>
-      <c r="H145" s="48" t="inlineStr"/>
+      <c r="H145" s="48" t="n">
+        <v>72.3334</v>
+      </c>
       <c r="I145" s="60" t="inlineStr">
         <is>
           <t>$</t>

--- a/web/simulator/simulation_1.xlsx
+++ b/web/simulator/simulation_1.xlsx
@@ -667,6 +667,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -674,24 +692,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1077,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:AL197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L81" sqref="L81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1307,7 +1307,9 @@
           <t>Project Duration</t>
         </is>
       </c>
-      <c r="F16" s="43" t="inlineStr"/>
+      <c r="F16" s="43" t="n">
+        <v>10</v>
+      </c>
       <c r="G16" s="38" t="inlineStr">
         <is>
           <t>years</t>
@@ -1315,7 +1317,9 @@
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="F17" s="43" t="inlineStr"/>
+      <c r="F17" s="43" t="n">
+        <v>120</v>
+      </c>
       <c r="G17" s="38" t="inlineStr">
         <is>
           <t>months</t>
@@ -1342,13 +1346,13 @@
     <row r="20" ht="17.25" customHeight="1"/>
     <row r="21" ht="17.25" customHeight="1"/>
     <row r="22" ht="20.25" customHeight="1" thickBot="1">
-      <c r="F22" s="92" t="inlineStr">
+      <c r="F22" s="89" t="inlineStr">
         <is>
           <t>AZA zinc air chemistry</t>
         </is>
       </c>
       <c r="G22" s="45" t="n"/>
-      <c r="H22" s="93" t="inlineStr">
+      <c r="H22" s="90" t="inlineStr">
         <is>
           <t>LFP chemistry</t>
         </is>
@@ -1462,13 +1466,13 @@
       <c r="G30" s="38" t="n"/>
     </row>
     <row r="31" ht="20.25" customHeight="1">
-      <c r="F31" s="89" t="inlineStr">
+      <c r="F31" s="95" t="inlineStr">
         <is>
           <t>AZA zinc air chemistry</t>
         </is>
       </c>
       <c r="G31" s="57" t="n"/>
-      <c r="H31" s="89" t="inlineStr">
+      <c r="H31" s="95" t="inlineStr">
         <is>
           <t>LFP chemistry</t>
         </is>
@@ -1482,7 +1486,7 @@
         </is>
       </c>
       <c r="F32" s="59" t="n">
-        <v>141222455.9356</v>
+        <v>111988217.7833</v>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
@@ -1505,7 +1509,7 @@
         </is>
       </c>
       <c r="F33" s="59" t="n">
-        <v>43215027.6898</v>
+        <v>56842399.8007</v>
       </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
@@ -1528,7 +1532,7 @@
         </is>
       </c>
       <c r="F34" s="59" t="n">
-        <v>201280415.7203</v>
+        <v>172279648.4097</v>
       </c>
       <c r="G34" s="60" t="inlineStr">
         <is>
@@ -1551,7 +1555,7 @@
         </is>
       </c>
       <c r="F35" s="59" t="n">
-        <v>186.3708</v>
+        <v>159.5182</v>
       </c>
       <c r="G35" s="60" t="inlineStr">
         <is>
@@ -1654,13 +1658,13 @@
     </row>
     <row r="44" ht="20" customHeight="1">
       <c r="C44" s="7" t="n"/>
-      <c r="F44" s="89" t="inlineStr">
+      <c r="F44" s="95" t="inlineStr">
         <is>
           <t>Debt</t>
         </is>
       </c>
       <c r="G44" s="64" t="n"/>
-      <c r="H44" s="90" t="inlineStr">
+      <c r="H44" s="96" t="inlineStr">
         <is>
           <t>Equity</t>
         </is>
@@ -3616,13 +3620,13 @@
           <t>Conversion Losses</t>
         </is>
       </c>
-      <c r="F106" s="89" t="inlineStr">
+      <c r="F106" s="95" t="inlineStr">
         <is>
           <t>AZA zinc air chemistry</t>
         </is>
       </c>
       <c r="G106" s="57" t="n"/>
-      <c r="H106" s="89" t="inlineStr">
+      <c r="H106" s="95" t="inlineStr">
         <is>
           <t>LFP chemistry</t>
         </is>
@@ -3779,13 +3783,17 @@
           <t>Battery RTE</t>
         </is>
       </c>
-      <c r="F115" s="59" t="inlineStr"/>
+      <c r="F115" s="59" t="n">
+        <v>0.55</v>
+      </c>
       <c r="G115" s="60" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H115" s="59" t="inlineStr"/>
+      <c r="H115" s="59" t="n">
+        <v>0.55</v>
+      </c>
       <c r="I115" s="60" t="inlineStr">
         <is>
           <t>%</t>
@@ -3908,7 +3916,7 @@
         </is>
       </c>
       <c r="H124" s="83" t="n">
-        <v>2244607.3627</v>
+        <v>1966469.865</v>
       </c>
       <c r="I124" s="60" t="inlineStr">
         <is>
@@ -4005,7 +4013,7 @@
         </is>
       </c>
       <c r="H127" s="83" t="n">
-        <v>5985.6196</v>
+        <v>5243.9196</v>
       </c>
       <c r="I127" s="60" t="inlineStr">
         <is>
@@ -4126,13 +4134,13 @@
     </row>
     <row r="133" ht="17.25" customHeight="1">
       <c r="C133" s="38" t="n"/>
-      <c r="F133" s="89" t="inlineStr">
+      <c r="F133" s="95" t="inlineStr">
         <is>
           <t>AZA zinc air chemistry</t>
         </is>
       </c>
       <c r="G133" s="57" t="n"/>
-      <c r="H133" s="89" t="inlineStr">
+      <c r="H133" s="95" t="inlineStr">
         <is>
           <t>LFP chemistry</t>
         </is>
@@ -4231,7 +4239,7 @@
         </is>
       </c>
       <c r="F138" s="48" t="n">
-        <v>28244491.1871</v>
+        <v>44795287.1133</v>
       </c>
       <c r="G138" s="60" t="inlineStr">
         <is>
@@ -4274,7 +4282,7 @@
         </is>
       </c>
       <c r="F140" s="59" t="n">
-        <v>14122245.5936</v>
+        <v>11198821.7783</v>
       </c>
       <c r="G140" s="60" t="inlineStr">
         <is>
@@ -4448,11 +4456,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="AA54:AC54"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="J78:M78"/>
+    <mergeCell ref="D104:E104"/>
     <mergeCell ref="AD54:AF54"/>
     <mergeCell ref="AG54:AI54"/>
     <mergeCell ref="AJ54:AL54"/>
@@ -4462,11 +4470,11 @@
     <mergeCell ref="R54:T54"/>
     <mergeCell ref="U54:W54"/>
     <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="AA54:AC54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web/simulator/simulation_1.xlsx
+++ b/web/simulator/simulation_1.xlsx
@@ -32,11 +32,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="\$#,##0.00000_);\(\$#,##0.00000\)"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.000_);\(\$#,##0.000\)"/>
     <numFmt numFmtId="166" formatCode="#,##0.00%"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -403,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -692,9 +691,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1189,8 +1185,10 @@
           <t>Model creation date</t>
         </is>
       </c>
-      <c r="F6" s="37" t="n">
-        <v>44849</v>
+      <c r="F6" s="37" t="inlineStr">
+        <is>
+          <t>2022-10-15</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1"/>
@@ -1215,8 +1213,10 @@
           <t>Battery Capacity Degredation per Annum</t>
         </is>
       </c>
-      <c r="F9" s="34" t="n">
-        <v>-0.063</v>
+      <c r="F9" s="34" t="inlineStr">
+        <is>
+          <t>-6.30%</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -1270,8 +1270,10 @@
           <t>Service Start</t>
         </is>
       </c>
-      <c r="F14" s="98" t="n">
-        <v>44849</v>
+      <c r="F14" s="34" t="inlineStr">
+        <is>
+          <t>2022-10-15</t>
+        </is>
       </c>
       <c r="G14" s="38" t="inlineStr">
         <is>
@@ -1287,8 +1289,10 @@
           <t>Service End</t>
         </is>
       </c>
-      <c r="F15" s="98" t="n">
-        <v>48502</v>
+      <c r="F15" s="34" t="inlineStr">
+        <is>
+          <t>2032-10-15</t>
+        </is>
       </c>
       <c r="G15" s="38" t="inlineStr">
         <is>
@@ -1411,16 +1415,20 @@
           <t>Load Capacity Degredation</t>
         </is>
       </c>
-      <c r="F25" s="52" t="n">
-        <v>-0.25</v>
+      <c r="F25" s="52" t="inlineStr">
+        <is>
+          <t>-25.00%</t>
+        </is>
       </c>
       <c r="G25" s="49" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H25" s="52" t="n">
-        <v>-0.25</v>
+      <c r="H25" s="52" t="inlineStr">
+        <is>
+          <t>-25.00%</t>
+        </is>
       </c>
       <c r="I25" s="51" t="inlineStr">
         <is>
@@ -1434,16 +1442,20 @@
           <t>Maxium DOD</t>
         </is>
       </c>
-      <c r="F26" s="52" t="n">
-        <v>1</v>
+      <c r="F26" s="52" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
       </c>
       <c r="G26" s="53" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H26" s="52" t="n">
-        <v>1</v>
+      <c r="H26" s="52" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
       </c>
       <c r="I26" s="55" t="inlineStr">
         <is>
@@ -1485,16 +1497,20 @@
           <t>Net Present CAPEX (@ project year 1)</t>
         </is>
       </c>
-      <c r="F32" s="59" t="n">
-        <v>111988217.7833</v>
+      <c r="F32" s="59" t="inlineStr">
+        <is>
+          <t>111,988,217.78</t>
+        </is>
       </c>
       <c r="G32" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H32" s="59" t="n">
-        <v>141222455.9356</v>
+      <c r="H32" s="59" t="inlineStr">
+        <is>
+          <t>141,222,455.94</t>
+        </is>
       </c>
       <c r="I32" s="60" t="inlineStr">
         <is>
@@ -1508,16 +1524,20 @@
           <t>Net Present OPEX (@ project year 1)</t>
         </is>
       </c>
-      <c r="F33" s="59" t="n">
-        <v>56842399.8007</v>
+      <c r="F33" s="59" t="inlineStr">
+        <is>
+          <t>56,842,399.80</t>
+        </is>
       </c>
       <c r="G33" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H33" s="59" t="n">
-        <v>43215027.6898</v>
+      <c r="H33" s="59" t="inlineStr">
+        <is>
+          <t>43,215,027.69</t>
+        </is>
       </c>
       <c r="I33" s="60" t="inlineStr">
         <is>
@@ -1531,16 +1551,20 @@
           <t>Net Present Cost (@ project year 1)</t>
         </is>
       </c>
-      <c r="F34" s="59" t="n">
-        <v>172279648.4097</v>
+      <c r="F34" s="59" t="inlineStr">
+        <is>
+          <t>172,279,648.41</t>
+        </is>
       </c>
       <c r="G34" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H34" s="59" t="n">
-        <v>201280415.7203</v>
+      <c r="H34" s="59" t="inlineStr">
+        <is>
+          <t>201,280,415.72</t>
+        </is>
       </c>
       <c r="I34" s="60" t="inlineStr">
         <is>
@@ -1678,16 +1702,20 @@
           <t>Financing split</t>
         </is>
       </c>
-      <c r="F45" s="52" t="n">
-        <v>50</v>
+      <c r="F45" s="52" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
       </c>
       <c r="G45" s="66" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H45" s="54" t="n">
-        <v>50</v>
+      <c r="H45" s="54" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
       </c>
       <c r="I45" s="63" t="inlineStr">
         <is>
@@ -1756,24 +1784,30 @@
     <row r="49" ht="20" customHeight="1">
       <c r="D49" s="43" t="n"/>
       <c r="E49" s="43" t="n"/>
-      <c r="F49" s="50" t="n">
-        <v>0.04</v>
+      <c r="F49" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H49" s="50" t="n">
-        <v>2.629636363636364</v>
+      <c r="H49" s="50" t="inlineStr">
+        <is>
+          <t>3.10%</t>
+        </is>
       </c>
       <c r="I49" s="32" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="J49" s="43" t="n">
-        <v>-0.7135</v>
+      <c r="J49" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -1806,442 +1840,574 @@
       </c>
     </row>
     <row r="50" ht="20" customHeight="1">
-      <c r="F50" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="F50" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H50" s="50" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
+      </c>
+      <c r="J50" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L50" s="50" t="n">
         <v>10</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50" s="67" t="n">
         <v>25</v>
       </c>
-      <c r="P50" t="n">
+      <c r="P50" s="67" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1">
-      <c r="F51" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J51" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="F51" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H51" s="50" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="J51" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L51" s="50" t="n">
         <v>10.333</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51" s="67" t="n">
         <v>26.556</v>
       </c>
-      <c r="P51" t="n">
+      <c r="P51" s="67" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1">
-      <c r="F52" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.509</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L52" t="n">
+      <c r="F52" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H52" s="50" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="J52" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L52" s="50" t="n">
         <v>10.667</v>
       </c>
-      <c r="N52" t="n">
+      <c r="N52" s="67" t="n">
         <v>28.111</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P52" s="67" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1">
-      <c r="F53" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="J53" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L53" t="n">
+      <c r="F53" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H53" s="50" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
+      <c r="J53" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L53" s="50" t="n">
         <v>11</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53" s="67" t="n">
         <v>29.667</v>
       </c>
-      <c r="P53" t="n">
+      <c r="P53" s="67" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1">
-      <c r="F54" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1.008</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L54" t="n">
+      <c r="F54" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H54" s="50" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="J54" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L54" s="50" t="n">
         <v>11.333</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54" s="67" t="n">
         <v>31.222</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54" s="67" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1">
-      <c r="F55" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.258</v>
-      </c>
-      <c r="J55" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L55" t="n">
+      <c r="F55" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H55" s="50" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="J55" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L55" s="50" t="n">
         <v>11.667</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55" s="67" t="n">
         <v>32.778</v>
       </c>
-      <c r="P55" t="n">
+      <c r="P55" s="67" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1">
-      <c r="F56" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1.507</v>
-      </c>
-      <c r="J56" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L56" t="n">
+      <c r="F56" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H56" s="50" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+      <c r="J56" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L56" s="50" t="n">
         <v>12</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56" s="67" t="n">
         <v>34.333</v>
       </c>
-      <c r="P56" t="n">
+      <c r="P56" s="67" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1">
-      <c r="F57" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1.756</v>
-      </c>
-      <c r="J57" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="F57" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H57" s="50" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
+      <c r="J57" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L57" s="50" t="n">
         <v>12.333</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57" s="67" t="n">
         <v>35.889</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P57" s="67" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1">
-      <c r="F58" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2.006</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L58" t="n">
+      <c r="F58" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H58" s="50" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="J58" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L58" s="50" t="n">
         <v>12.667</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58" s="67" t="n">
         <v>37.444</v>
       </c>
-      <c r="P58" t="n">
+      <c r="P58" s="67" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1">
-      <c r="F59" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2.255</v>
-      </c>
-      <c r="J59" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L59" t="n">
+      <c r="F59" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H59" s="50" t="inlineStr">
+        <is>
+          <t>2.80%</t>
+        </is>
+      </c>
+      <c r="J59" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L59" s="50" t="n">
         <v>13</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59" s="67" t="n">
         <v>39</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P59" s="67" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1">
-      <c r="F60" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2.505</v>
-      </c>
-      <c r="J60" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L60" t="n">
+      <c r="F60" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H60" s="50" t="inlineStr">
+        <is>
+          <t>3.00%</t>
+        </is>
+      </c>
+      <c r="J60" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L60" s="50" t="n">
         <v>13.333</v>
       </c>
-      <c r="N60" t="n">
+      <c r="N60" s="67" t="n">
         <v>40.556</v>
       </c>
-      <c r="P60" t="n">
+      <c r="P60" s="67" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1">
-      <c r="F61" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2.754</v>
-      </c>
-      <c r="J61" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L61" t="n">
+      <c r="F61" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H61" s="50" t="inlineStr">
+        <is>
+          <t>3.20%</t>
+        </is>
+      </c>
+      <c r="J61" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L61" s="50" t="n">
         <v>13.667</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61" s="67" t="n">
         <v>42.111</v>
       </c>
-      <c r="P61" t="n">
+      <c r="P61" s="67" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1">
-      <c r="F62" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H62" t="n">
-        <v>3.004</v>
-      </c>
-      <c r="J62" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L62" t="n">
+      <c r="F62" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H62" s="50" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
+      <c r="J62" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L62" s="50" t="n">
         <v>14</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62" s="67" t="n">
         <v>43.667</v>
       </c>
-      <c r="P62" t="n">
+      <c r="P62" s="67" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1">
-      <c r="F63" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3.253</v>
-      </c>
-      <c r="J63" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L63" t="n">
+      <c r="F63" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H63" s="50" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
+      <c r="J63" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L63" s="50" t="n">
         <v>14.333</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63" s="67" t="n">
         <v>45.222</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P63" s="67" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1">
-      <c r="F64" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H64" t="n">
-        <v>3.503</v>
-      </c>
-      <c r="J64" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L64" t="n">
+      <c r="F64" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H64" s="50" t="inlineStr">
+        <is>
+          <t>3.80%</t>
+        </is>
+      </c>
+      <c r="J64" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L64" s="50" t="n">
         <v>14.667</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64" s="67" t="n">
         <v>46.778</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64" s="67" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1">
-      <c r="F65" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3.752</v>
-      </c>
-      <c r="J65" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L65" t="n">
+      <c r="F65" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H65" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="J65" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L65" s="50" t="n">
         <v>15</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N65" s="67" t="n">
         <v>48.333</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P65" s="67" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1">
-      <c r="F66" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4.002</v>
-      </c>
-      <c r="J66" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L66" t="n">
+      <c r="F66" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H66" s="50" t="inlineStr">
+        <is>
+          <t>4.20%</t>
+        </is>
+      </c>
+      <c r="J66" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L66" s="50" t="n">
         <v>15.333</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N66" s="67" t="n">
         <v>49.889</v>
       </c>
-      <c r="P66" t="n">
+      <c r="P66" s="67" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1">
-      <c r="F67" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4.252</v>
-      </c>
-      <c r="J67" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L67" t="n">
+      <c r="F67" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H67" s="50" t="inlineStr">
+        <is>
+          <t>4.40%</t>
+        </is>
+      </c>
+      <c r="J67" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L67" s="50" t="n">
         <v>15.667</v>
       </c>
-      <c r="N67" t="n">
+      <c r="N67" s="67" t="n">
         <v>51.444</v>
       </c>
-      <c r="P67" t="n">
+      <c r="P67" s="67" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="68" ht="31" customHeight="1">
-      <c r="F68" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H68" t="n">
-        <v>4.501</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L68" t="n">
+      <c r="F68" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H68" s="50" t="inlineStr">
+        <is>
+          <t>4.60%</t>
+        </is>
+      </c>
+      <c r="J68" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L68" s="50" t="n">
         <v>16</v>
       </c>
-      <c r="N68" t="n">
+      <c r="N68" s="67" t="n">
         <v>53</v>
       </c>
-      <c r="P68" t="n">
+      <c r="P68" s="67" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="69" ht="47" customHeight="1">
-      <c r="F69" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J69" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L69" t="n">
+      <c r="F69" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H69" s="50" t="inlineStr">
+        <is>
+          <t>4.80%</t>
+        </is>
+      </c>
+      <c r="J69" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L69" s="50" t="n">
         <v>16.333</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69" s="67" t="n">
         <v>54.556</v>
       </c>
-      <c r="P69" t="n">
+      <c r="P69" s="67" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1">
-      <c r="F70" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L70" t="n">
+      <c r="F70" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H70" s="50" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="J70" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L70" s="50" t="n">
         <v>16.667</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N70" s="67" t="n">
         <v>56.111</v>
       </c>
-      <c r="P70" t="n">
+      <c r="P70" s="67" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1">
-      <c r="F71" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H71" t="n">
-        <v>5.249</v>
-      </c>
-      <c r="J71" t="n">
-        <v>-0.7135</v>
-      </c>
-      <c r="L71" t="n">
+      <c r="F71" s="50" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
+      <c r="H71" s="50" t="inlineStr">
+        <is>
+          <t>5.20%</t>
+        </is>
+      </c>
+      <c r="J71" s="43" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="L71" s="50" t="n">
         <v>17</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N71" s="67" t="n">
         <v>57.667</v>
       </c>
-      <c r="P71" t="n">
+      <c r="P71" s="67" t="n">
         <v>52</v>
       </c>
     </row>
@@ -2305,83 +2471,83 @@
           <t>Year</t>
         </is>
       </c>
-      <c r="F76" s="99" t="inlineStr">
+      <c r="F76" s="98" t="inlineStr">
         <is>
           <t>Cycle Life</t>
         </is>
       </c>
-      <c r="G76" s="100" t="n"/>
-      <c r="H76" s="101" t="n"/>
-      <c r="I76" s="99" t="inlineStr">
+      <c r="G76" s="99" t="n"/>
+      <c r="H76" s="100" t="n"/>
+      <c r="I76" s="98" t="inlineStr">
         <is>
           <t>Cell Energy Density (gravimetric)</t>
         </is>
       </c>
-      <c r="J76" s="100" t="n"/>
-      <c r="K76" s="101" t="n"/>
-      <c r="L76" s="99" t="inlineStr">
+      <c r="J76" s="99" t="n"/>
+      <c r="K76" s="100" t="n"/>
+      <c r="L76" s="98" t="inlineStr">
         <is>
           <t>Pack Service Life</t>
         </is>
       </c>
-      <c r="M76" s="100" t="n"/>
-      <c r="N76" s="101" t="n"/>
-      <c r="O76" s="99" t="inlineStr">
+      <c r="M76" s="99" t="n"/>
+      <c r="N76" s="100" t="n"/>
+      <c r="O76" s="98" t="inlineStr">
         <is>
           <t>Nominal Discharge Rate</t>
         </is>
       </c>
-      <c r="P76" s="100" t="n"/>
-      <c r="Q76" s="101" t="n"/>
-      <c r="R76" s="102" t="inlineStr">
+      <c r="P76" s="99" t="n"/>
+      <c r="Q76" s="100" t="n"/>
+      <c r="R76" s="101" t="inlineStr">
         <is>
           <t>Charge Rate</t>
         </is>
       </c>
-      <c r="S76" s="100" t="n"/>
-      <c r="T76" s="101" t="n"/>
-      <c r="U76" s="99" t="inlineStr">
+      <c r="S76" s="99" t="n"/>
+      <c r="T76" s="100" t="n"/>
+      <c r="U76" s="98" t="inlineStr">
         <is>
           <t>Bill of Materials Cost</t>
         </is>
       </c>
-      <c r="V76" s="100" t="n"/>
-      <c r="W76" s="101" t="n"/>
-      <c r="X76" s="99" t="inlineStr">
+      <c r="V76" s="99" t="n"/>
+      <c r="W76" s="100" t="n"/>
+      <c r="X76" s="98" t="inlineStr">
         <is>
           <t>Cell manufacture Cost</t>
         </is>
       </c>
-      <c r="Y76" s="100" t="n"/>
-      <c r="Z76" s="101" t="n"/>
-      <c r="AA76" s="99" t="inlineStr">
+      <c r="Y76" s="99" t="n"/>
+      <c r="Z76" s="100" t="n"/>
+      <c r="AA76" s="98" t="inlineStr">
         <is>
           <t>Total cell cost</t>
         </is>
       </c>
-      <c r="AB76" s="100" t="n"/>
-      <c r="AC76" s="101" t="n"/>
-      <c r="AD76" s="99" t="inlineStr">
+      <c r="AB76" s="99" t="n"/>
+      <c r="AC76" s="100" t="n"/>
+      <c r="AD76" s="98" t="inlineStr">
         <is>
           <t>Pack assembly cost as % of cell cost</t>
         </is>
       </c>
-      <c r="AE76" s="100" t="n"/>
-      <c r="AF76" s="101" t="n"/>
-      <c r="AG76" s="99" t="inlineStr">
+      <c r="AE76" s="99" t="n"/>
+      <c r="AF76" s="100" t="n"/>
+      <c r="AG76" s="98" t="inlineStr">
         <is>
           <t>BMS cost as % of cell cost</t>
         </is>
       </c>
-      <c r="AH76" s="100" t="n"/>
-      <c r="AI76" s="101" t="n"/>
-      <c r="AJ76" s="99" t="inlineStr">
+      <c r="AH76" s="99" t="n"/>
+      <c r="AI76" s="100" t="n"/>
+      <c r="AJ76" s="98" t="inlineStr">
         <is>
           <t>Total Pack Cost</t>
         </is>
       </c>
-      <c r="AK76" s="100" t="n"/>
-      <c r="AL76" s="101" t="n"/>
+      <c r="AK76" s="99" t="n"/>
+      <c r="AL76" s="100" t="n"/>
     </row>
     <row r="77" ht="20" customHeight="1">
       <c r="A77" s="49" t="n"/>
@@ -2555,11 +2721,15 @@
           <t>hours</t>
         </is>
       </c>
-      <c r="R78" s="76" t="n">
-        <v>1</v>
-      </c>
-      <c r="S78" s="76" t="n">
-        <v>0.85</v>
+      <c r="R78" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S78" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
       </c>
       <c r="T78" s="73" t="inlineStr">
         <is>
@@ -2618,970 +2788,1058 @@
       </c>
     </row>
     <row r="79" ht="20" customHeight="1">
-      <c r="F79" t="n">
+      <c r="F79" s="34" t="n">
         <v>2350</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79" s="34" t="n">
         <v>4220</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79" s="34" t="n">
         <v>10</v>
       </c>
-      <c r="O79" t="n">
+      <c r="O79" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P79" t="n">
+      <c r="P79" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R79" t="n">
+      <c r="R79" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S79" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U79" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V79" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X79" s="34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y79" s="34" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1">
+      <c r="F80" s="34" t="n">
+        <v>2581.657</v>
+      </c>
+      <c r="G80" s="34" t="n">
+        <v>4429.191</v>
+      </c>
+      <c r="I80" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J80" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L80" s="34" t="n">
+        <v>11</v>
+      </c>
+      <c r="M80" s="34" t="n">
+        <v>11</v>
+      </c>
+      <c r="O80" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P80" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R80" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S80" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U80" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V80" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X80" s="34" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="Y80" s="34" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1">
+      <c r="F81" s="34" t="n">
+        <v>2823.77</v>
+      </c>
+      <c r="G81" s="34" t="n">
+        <v>4638.298</v>
+      </c>
+      <c r="I81" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J81" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L81" s="34" t="n">
+        <v>12</v>
+      </c>
+      <c r="M81" s="34" t="n">
+        <v>12</v>
+      </c>
+      <c r="O81" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P81" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R81" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S81" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U81" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V81" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X81" s="34" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="Y81" s="34" t="n">
+        <v>0.643</v>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1">
+      <c r="F82" s="34" t="n">
+        <v>3076.305</v>
+      </c>
+      <c r="G82" s="34" t="n">
+        <v>4847.326</v>
+      </c>
+      <c r="I82" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J82" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L82" s="34" t="n">
+        <v>13</v>
+      </c>
+      <c r="M82" s="34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O82" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P82" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R82" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S82" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U82" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V82" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X82" s="34" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="Y82" s="34" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+    </row>
+    <row r="83" ht="20" customHeight="1">
+      <c r="F83" s="34" t="n">
+        <v>3339.226</v>
+      </c>
+      <c r="G83" s="34" t="n">
+        <v>5056.278</v>
+      </c>
+      <c r="I83" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J83" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L83" s="34" t="n">
+        <v>14</v>
+      </c>
+      <c r="M83" s="34" t="n">
+        <v>14</v>
+      </c>
+      <c r="O83" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P83" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R83" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S83" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U83" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V83" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X83" s="34" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="Y83" s="34" t="n">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1">
+      <c r="F84" s="34" t="n">
+        <v>3612.503</v>
+      </c>
+      <c r="G84" s="34" t="n">
+        <v>5265.157</v>
+      </c>
+      <c r="I84" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J84" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L84" s="34" t="n">
+        <v>15</v>
+      </c>
+      <c r="M84" s="34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O84" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P84" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R84" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S84" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U84" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V84" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X84" s="34" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="Y84" s="34" t="n">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="85" ht="20" customHeight="1">
+      <c r="F85" s="34" t="n">
+        <v>3896.104</v>
+      </c>
+      <c r="G85" s="34" t="n">
+        <v>5473.966</v>
+      </c>
+      <c r="I85" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L85" s="34" t="n">
+        <v>16</v>
+      </c>
+      <c r="M85" s="34" t="n">
+        <v>16</v>
+      </c>
+      <c r="O85" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P85" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R85" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S85" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U85" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V85" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X85" s="34" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="Y85" s="34" t="n">
+        <v>1.329</v>
+      </c>
+    </row>
+    <row r="86" ht="20" customHeight="1">
+      <c r="F86" s="34" t="n">
+        <v>4190</v>
+      </c>
+      <c r="G86" s="34" t="n">
+        <v>5682.708</v>
+      </c>
+      <c r="I86" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J86" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L86" s="34" t="n">
+        <v>17</v>
+      </c>
+      <c r="M86" s="34" t="n">
+        <v>17</v>
+      </c>
+      <c r="O86" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P86" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R86" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S86" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U86" s="34" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="V86" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="X86" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="S79" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U79" t="n">
+      <c r="Y86" s="34" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" ht="20" customHeight="1">
+      <c r="F87" s="34" t="n">
+        <v>4494.162</v>
+      </c>
+      <c r="G87" s="34" t="n">
+        <v>5891.385</v>
+      </c>
+      <c r="I87" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="J87" s="34" t="n">
+        <v>65</v>
+      </c>
+      <c r="L87" s="34" t="n">
+        <v>18</v>
+      </c>
+      <c r="M87" s="34" t="n">
+        <v>18</v>
+      </c>
+      <c r="O87" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="P87" s="34" t="n">
+        <v>896</v>
+      </c>
+      <c r="R87" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S87" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U87" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V79" t="n">
+      <c r="V87" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X79" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="80" ht="20" customHeight="1">
-      <c r="F80" t="n">
-        <v>2581.657</v>
-      </c>
-      <c r="G80" t="n">
-        <v>4429.191</v>
-      </c>
-      <c r="I80" t="n">
+      <c r="X87" s="34" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="Y87" s="34" t="n">
+        <v>1.671</v>
+      </c>
+    </row>
+    <row r="88" ht="20" customHeight="1">
+      <c r="F88" s="34" t="n">
+        <v>4808.563</v>
+      </c>
+      <c r="G88" s="34" t="n">
+        <v>6100</v>
+      </c>
+      <c r="I88" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J88" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L80" t="n">
-        <v>11</v>
-      </c>
-      <c r="M80" t="n">
-        <v>11</v>
-      </c>
-      <c r="O80" t="n">
+      <c r="L88" s="34" t="n">
+        <v>19</v>
+      </c>
+      <c r="M88" s="34" t="n">
+        <v>19</v>
+      </c>
+      <c r="O88" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P80" t="n">
+      <c r="P88" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R80" t="n">
-        <v>1</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U80" t="n">
+      <c r="R88" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S88" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U88" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V80" t="n">
+      <c r="V88" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X80" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>0.471</v>
-      </c>
-    </row>
-    <row r="81" ht="20" customHeight="1">
-      <c r="F81" t="n">
-        <v>2823.77</v>
-      </c>
-      <c r="G81" t="n">
-        <v>4638.298</v>
-      </c>
-      <c r="I81" t="n">
+      <c r="X88" s="34" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="Y88" s="34" t="n">
+        <v>1.843</v>
+      </c>
+    </row>
+    <row r="89" ht="20" customHeight="1">
+      <c r="F89" s="34" t="n">
+        <v>5133.177</v>
+      </c>
+      <c r="G89" s="34" t="n">
+        <v>6308.555</v>
+      </c>
+      <c r="I89" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J89" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L81" t="n">
-        <v>12</v>
-      </c>
-      <c r="M81" t="n">
-        <v>12</v>
-      </c>
-      <c r="O81" t="n">
+      <c r="L89" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="M89" s="34" t="n">
+        <v>20</v>
+      </c>
+      <c r="O89" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P81" t="n">
+      <c r="P89" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R81" t="n">
-        <v>1</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U81" t="n">
+      <c r="R89" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S89" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U89" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V81" t="n">
+      <c r="V89" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X81" t="n">
-        <v>0.407</v>
-      </c>
-      <c r="Y81" t="n">
-        <v>0.643</v>
-      </c>
-    </row>
-    <row r="82" ht="20" customHeight="1">
-      <c r="F82" t="n">
-        <v>3076.305</v>
-      </c>
-      <c r="G82" t="n">
-        <v>4847.326</v>
-      </c>
-      <c r="I82" t="n">
+      <c r="X89" s="34" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="Y89" s="34" t="n">
+        <v>2.014</v>
+      </c>
+    </row>
+    <row r="90" ht="20" customHeight="1">
+      <c r="F90" s="34" t="n">
+        <v>5467.979</v>
+      </c>
+      <c r="G90" s="34" t="n">
+        <v>6517.051</v>
+      </c>
+      <c r="I90" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J90" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L82" t="n">
-        <v>13</v>
-      </c>
-      <c r="M82" t="n">
-        <v>13</v>
-      </c>
-      <c r="O82" t="n">
+      <c r="L90" s="34" t="n">
+        <v>21</v>
+      </c>
+      <c r="M90" s="34" t="n">
+        <v>21</v>
+      </c>
+      <c r="O90" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P82" t="n">
+      <c r="P90" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R82" t="n">
-        <v>1</v>
-      </c>
-      <c r="S82" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U82" t="n">
+      <c r="R90" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S90" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U90" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V82" t="n">
+      <c r="V90" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X82" t="n">
-        <v>0.526</v>
-      </c>
-      <c r="Y82" t="n">
-        <v>0.8139999999999999</v>
-      </c>
-    </row>
-    <row r="83" ht="20" customHeight="1">
-      <c r="F83" t="n">
-        <v>3339.226</v>
-      </c>
-      <c r="G83" t="n">
-        <v>5056.278</v>
-      </c>
-      <c r="I83" t="n">
+      <c r="X90" s="34" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="Y90" s="34" t="n">
+        <v>2.186</v>
+      </c>
+    </row>
+    <row r="91" ht="20" customHeight="1">
+      <c r="F91" s="34" t="n">
+        <v>5812.943</v>
+      </c>
+      <c r="G91" s="34" t="n">
+        <v>6725.491</v>
+      </c>
+      <c r="I91" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J91" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L83" t="n">
-        <v>14</v>
-      </c>
-      <c r="M83" t="n">
-        <v>14</v>
-      </c>
-      <c r="O83" t="n">
+      <c r="L91" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="M91" s="34" t="n">
+        <v>22</v>
+      </c>
+      <c r="O91" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P83" t="n">
+      <c r="P91" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R83" t="n">
-        <v>1</v>
-      </c>
-      <c r="S83" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U83" t="n">
+      <c r="R91" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S91" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U91" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V83" t="n">
+      <c r="V91" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X83" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="84" ht="20" customHeight="1">
-      <c r="F84" t="n">
-        <v>3612.503</v>
-      </c>
-      <c r="G84" t="n">
-        <v>5265.157</v>
-      </c>
-      <c r="I84" t="n">
+      <c r="X91" s="34" t="n">
+        <v>1.593</v>
+      </c>
+      <c r="Y91" s="34" t="n">
+        <v>2.357</v>
+      </c>
+    </row>
+    <row r="92" ht="20" customHeight="1">
+      <c r="F92" s="34" t="n">
+        <v>6168.048</v>
+      </c>
+      <c r="G92" s="34" t="n">
+        <v>6933.876</v>
+      </c>
+      <c r="I92" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J92" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L84" t="n">
-        <v>15</v>
-      </c>
-      <c r="M84" t="n">
-        <v>15</v>
-      </c>
-      <c r="O84" t="n">
+      <c r="L92" s="34" t="n">
+        <v>23</v>
+      </c>
+      <c r="M92" s="34" t="n">
+        <v>23</v>
+      </c>
+      <c r="O92" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P84" t="n">
+      <c r="P92" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R84" t="n">
-        <v>1</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U84" t="n">
+      <c r="R92" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S92" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U92" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V84" t="n">
+      <c r="V92" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X84" t="n">
-        <v>0.763</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>1.157</v>
-      </c>
-    </row>
-    <row r="85" ht="20" customHeight="1">
-      <c r="F85" t="n">
-        <v>3896.104</v>
-      </c>
-      <c r="G85" t="n">
-        <v>5473.966</v>
-      </c>
-      <c r="I85" t="n">
+      <c r="X92" s="34" t="n">
+        <v>1.711</v>
+      </c>
+      <c r="Y92" s="34" t="n">
+        <v>2.529</v>
+      </c>
+    </row>
+    <row r="93" ht="20" customHeight="1">
+      <c r="F93" s="34" t="n">
+        <v>6533.269</v>
+      </c>
+      <c r="G93" s="34" t="n">
+        <v>7142.209</v>
+      </c>
+      <c r="I93" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J93" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L85" t="n">
-        <v>16</v>
-      </c>
-      <c r="M85" t="n">
-        <v>16</v>
-      </c>
-      <c r="O85" t="n">
+      <c r="L93" s="34" t="n">
+        <v>24</v>
+      </c>
+      <c r="M93" s="34" t="n">
+        <v>24</v>
+      </c>
+      <c r="O93" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P85" t="n">
+      <c r="P93" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R85" t="n">
-        <v>1</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U85" t="n">
+      <c r="R93" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S93" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U93" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V85" t="n">
+      <c r="V93" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X85" t="n">
-        <v>0.881</v>
-      </c>
-      <c r="Y85" t="n">
-        <v>1.329</v>
-      </c>
-    </row>
-    <row r="86" ht="20" customHeight="1">
-      <c r="F86" t="n">
-        <v>4190</v>
-      </c>
-      <c r="G86" t="n">
-        <v>5682.708</v>
-      </c>
-      <c r="I86" t="n">
+      <c r="X93" s="34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y93" s="34" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="94" ht="20" customHeight="1">
+      <c r="F94" s="34" t="n">
+        <v>6908.585</v>
+      </c>
+      <c r="G94" s="34" t="n">
+        <v>7350.49</v>
+      </c>
+      <c r="I94" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J94" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L86" t="n">
-        <v>17</v>
-      </c>
-      <c r="M86" t="n">
-        <v>17</v>
-      </c>
-      <c r="O86" t="n">
+      <c r="L94" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="M94" s="34" t="n">
+        <v>25</v>
+      </c>
+      <c r="O94" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P86" t="n">
+      <c r="P94" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R86" t="n">
-        <v>1</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U86" t="n">
+      <c r="R94" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S94" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U94" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V86" t="n">
+      <c r="V94" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X86" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="87" ht="20" customHeight="1">
-      <c r="F87" t="n">
-        <v>4494.162</v>
-      </c>
-      <c r="G87" t="n">
-        <v>5891.385</v>
-      </c>
-      <c r="I87" t="n">
+      <c r="X94" s="34" t="n">
+        <v>1.949</v>
+      </c>
+      <c r="Y94" s="34" t="n">
+        <v>2.871</v>
+      </c>
+    </row>
+    <row r="95" ht="20" customHeight="1">
+      <c r="F95" s="34" t="n">
+        <v>7293.975</v>
+      </c>
+      <c r="G95" s="34" t="n">
+        <v>7558.722</v>
+      </c>
+      <c r="I95" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J95" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L87" t="n">
-        <v>18</v>
-      </c>
-      <c r="M87" t="n">
-        <v>18</v>
-      </c>
-      <c r="O87" t="n">
+      <c r="L95" s="34" t="n">
+        <v>26</v>
+      </c>
+      <c r="M95" s="34" t="n">
+        <v>26</v>
+      </c>
+      <c r="O95" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P87" t="n">
+      <c r="P95" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R87" t="n">
-        <v>1</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U87" t="n">
+      <c r="R95" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S95" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U95" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V87" t="n">
+      <c r="V95" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X87" t="n">
-        <v>1.119</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>1.671</v>
-      </c>
-    </row>
-    <row r="88" ht="20" customHeight="1">
-      <c r="F88" t="n">
-        <v>4808.563</v>
-      </c>
-      <c r="G88" t="n">
-        <v>6100</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="X95" s="34" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="Y95" s="34" t="n">
+        <v>3.043</v>
+      </c>
+    </row>
+    <row r="96" ht="20" customHeight="1">
+      <c r="F96" s="34" t="n">
+        <v>7689.417</v>
+      </c>
+      <c r="G96" s="34" t="n">
+        <v>7766.905</v>
+      </c>
+      <c r="I96" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J96" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L88" t="n">
-        <v>19</v>
-      </c>
-      <c r="M88" t="n">
-        <v>19</v>
-      </c>
-      <c r="O88" t="n">
+      <c r="L96" s="34" t="n">
+        <v>27</v>
+      </c>
+      <c r="M96" s="34" t="n">
+        <v>27</v>
+      </c>
+      <c r="O96" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P88" t="n">
+      <c r="P96" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R88" t="n">
-        <v>1</v>
-      </c>
-      <c r="S88" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U88" t="n">
+      <c r="R96" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S96" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U96" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V88" t="n">
+      <c r="V96" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X88" t="n">
-        <v>1.237</v>
-      </c>
-      <c r="Y88" t="n">
-        <v>1.843</v>
-      </c>
-    </row>
-    <row r="89" ht="20" customHeight="1">
-      <c r="F89" t="n">
-        <v>5133.177</v>
-      </c>
-      <c r="G89" t="n">
-        <v>6308.555</v>
-      </c>
-      <c r="I89" t="n">
+      <c r="X96" s="34" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="Y96" s="34" t="n">
+        <v>3.214</v>
+      </c>
+    </row>
+    <row r="97" ht="17.25" customHeight="1">
+      <c r="F97" s="34" t="n">
+        <v>8094.892</v>
+      </c>
+      <c r="G97" s="34" t="n">
+        <v>7975.041</v>
+      </c>
+      <c r="I97" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J97" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L89" t="n">
-        <v>20</v>
-      </c>
-      <c r="M89" t="n">
-        <v>20</v>
-      </c>
-      <c r="O89" t="n">
+      <c r="L97" s="34" t="n">
+        <v>28</v>
+      </c>
+      <c r="M97" s="34" t="n">
+        <v>28</v>
+      </c>
+      <c r="O97" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P89" t="n">
+      <c r="P97" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R89" t="n">
-        <v>1</v>
-      </c>
-      <c r="S89" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U89" t="n">
+      <c r="R97" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S97" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U97" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V89" t="n">
+      <c r="V97" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X89" t="n">
-        <v>1.356</v>
-      </c>
-      <c r="Y89" t="n">
-        <v>2.014</v>
-      </c>
-    </row>
-    <row r="90" ht="20" customHeight="1">
-      <c r="F90" t="n">
-        <v>5467.979</v>
-      </c>
-      <c r="G90" t="n">
-        <v>6517.051</v>
-      </c>
-      <c r="I90" t="n">
+      <c r="X97" s="34" t="n">
+        <v>2.304</v>
+      </c>
+      <c r="Y97" s="34" t="n">
+        <v>3.386</v>
+      </c>
+    </row>
+    <row r="98" ht="17.25" customHeight="1">
+      <c r="F98" s="34" t="n">
+        <v>8510.379999999999</v>
+      </c>
+      <c r="G98" s="34" t="n">
+        <v>8183.131</v>
+      </c>
+      <c r="I98" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J98" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L90" t="n">
-        <v>21</v>
-      </c>
-      <c r="M90" t="n">
-        <v>21</v>
-      </c>
-      <c r="O90" t="n">
+      <c r="L98" s="34" t="n">
+        <v>29</v>
+      </c>
+      <c r="M98" s="34" t="n">
+        <v>29</v>
+      </c>
+      <c r="O98" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P90" t="n">
+      <c r="P98" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R90" t="n">
-        <v>1</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U90" t="n">
+      <c r="R98" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S98" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U98" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V90" t="n">
+      <c r="V98" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X90" t="n">
-        <v>1.474</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>2.186</v>
-      </c>
-    </row>
-    <row r="91" ht="20" customHeight="1">
-      <c r="F91" t="n">
-        <v>5812.943</v>
-      </c>
-      <c r="G91" t="n">
-        <v>6725.491</v>
-      </c>
-      <c r="I91" t="n">
+      <c r="X98" s="34" t="n">
+        <v>2.423</v>
+      </c>
+      <c r="Y98" s="34" t="n">
+        <v>3.557</v>
+      </c>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c r="F99" s="34" t="n">
+        <v>8935.861999999999</v>
+      </c>
+      <c r="G99" s="34" t="n">
+        <v>8391.177</v>
+      </c>
+      <c r="I99" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J99" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L91" t="n">
-        <v>22</v>
-      </c>
-      <c r="M91" t="n">
-        <v>22</v>
-      </c>
-      <c r="O91" t="n">
+      <c r="L99" s="34" t="n">
+        <v>30</v>
+      </c>
+      <c r="M99" s="34" t="n">
+        <v>30</v>
+      </c>
+      <c r="O99" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P91" t="n">
+      <c r="P99" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R91" t="n">
-        <v>1</v>
-      </c>
-      <c r="S91" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U91" t="n">
+      <c r="R99" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S99" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U99" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V91" t="n">
+      <c r="V99" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X91" t="n">
-        <v>1.593</v>
-      </c>
-      <c r="Y91" t="n">
-        <v>2.357</v>
-      </c>
-    </row>
-    <row r="92" ht="20" customHeight="1">
-      <c r="F92" t="n">
-        <v>6168.048</v>
-      </c>
-      <c r="G92" t="n">
-        <v>6933.876</v>
-      </c>
-      <c r="I92" t="n">
+      <c r="X99" s="34" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="Y99" s="34" t="n">
+        <v>3.729</v>
+      </c>
+    </row>
+    <row r="100" ht="17.25" customHeight="1">
+      <c r="F100" s="34" t="n">
+        <v>9371.32</v>
+      </c>
+      <c r="G100" s="34" t="n">
+        <v>8599.179</v>
+      </c>
+      <c r="I100" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J100" s="34" t="n">
         <v>65</v>
       </c>
-      <c r="L92" t="n">
-        <v>23</v>
-      </c>
-      <c r="M92" t="n">
-        <v>23</v>
-      </c>
-      <c r="O92" t="n">
+      <c r="L100" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="M100" s="34" t="n">
+        <v>31</v>
+      </c>
+      <c r="O100" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="P92" t="n">
+      <c r="P100" s="34" t="n">
         <v>896</v>
       </c>
-      <c r="R92" t="n">
-        <v>1</v>
-      </c>
-      <c r="S92" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U92" t="n">
+      <c r="R100" s="76" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="S100" s="76" t="inlineStr">
+        <is>
+          <t>85.00%</t>
+        </is>
+      </c>
+      <c r="U100" s="34" t="n">
         <v>3.625</v>
       </c>
-      <c r="V92" t="n">
+      <c r="V100" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="X92" t="n">
-        <v>1.711</v>
-      </c>
-      <c r="Y92" t="n">
-        <v>2.529</v>
-      </c>
-    </row>
-    <row r="93" ht="20" customHeight="1">
-      <c r="F93" t="n">
-        <v>6533.269</v>
-      </c>
-      <c r="G93" t="n">
-        <v>7142.209</v>
-      </c>
-      <c r="I93" t="n">
-        <v>65</v>
-      </c>
-      <c r="J93" t="n">
-        <v>65</v>
-      </c>
-      <c r="L93" t="n">
-        <v>24</v>
-      </c>
-      <c r="M93" t="n">
-        <v>24</v>
-      </c>
-      <c r="O93" t="n">
-        <v>896</v>
-      </c>
-      <c r="P93" t="n">
-        <v>896</v>
-      </c>
-      <c r="R93" t="n">
-        <v>1</v>
-      </c>
-      <c r="S93" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U93" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V93" t="n">
-        <v>4</v>
-      </c>
-      <c r="X93" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y93" t="n">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="94" ht="20" customHeight="1">
-      <c r="F94" t="n">
-        <v>6908.585</v>
-      </c>
-      <c r="G94" t="n">
-        <v>7350.49</v>
-      </c>
-      <c r="I94" t="n">
-        <v>65</v>
-      </c>
-      <c r="J94" t="n">
-        <v>65</v>
-      </c>
-      <c r="L94" t="n">
-        <v>25</v>
-      </c>
-      <c r="M94" t="n">
-        <v>25</v>
-      </c>
-      <c r="O94" t="n">
-        <v>896</v>
-      </c>
-      <c r="P94" t="n">
-        <v>896</v>
-      </c>
-      <c r="R94" t="n">
-        <v>1</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U94" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V94" t="n">
-        <v>4</v>
-      </c>
-      <c r="X94" t="n">
-        <v>1.949</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>2.871</v>
-      </c>
-    </row>
-    <row r="95" ht="20" customHeight="1">
-      <c r="F95" t="n">
-        <v>7293.975</v>
-      </c>
-      <c r="G95" t="n">
-        <v>7558.722</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>65</v>
-      </c>
-      <c r="L95" t="n">
-        <v>26</v>
-      </c>
-      <c r="M95" t="n">
-        <v>26</v>
-      </c>
-      <c r="O95" t="n">
-        <v>896</v>
-      </c>
-      <c r="P95" t="n">
-        <v>896</v>
-      </c>
-      <c r="R95" t="n">
-        <v>1</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U95" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V95" t="n">
-        <v>4</v>
-      </c>
-      <c r="X95" t="n">
-        <v>2.067</v>
-      </c>
-      <c r="Y95" t="n">
-        <v>3.043</v>
-      </c>
-    </row>
-    <row r="96" ht="20" customHeight="1">
-      <c r="F96" t="n">
-        <v>7689.417</v>
-      </c>
-      <c r="G96" t="n">
-        <v>7766.905</v>
-      </c>
-      <c r="I96" t="n">
-        <v>65</v>
-      </c>
-      <c r="J96" t="n">
-        <v>65</v>
-      </c>
-      <c r="L96" t="n">
-        <v>27</v>
-      </c>
-      <c r="M96" t="n">
-        <v>27</v>
-      </c>
-      <c r="O96" t="n">
-        <v>896</v>
-      </c>
-      <c r="P96" t="n">
-        <v>896</v>
-      </c>
-      <c r="R96" t="n">
-        <v>1</v>
-      </c>
-      <c r="S96" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U96" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V96" t="n">
-        <v>4</v>
-      </c>
-      <c r="X96" t="n">
-        <v>2.186</v>
-      </c>
-      <c r="Y96" t="n">
-        <v>3.214</v>
-      </c>
-    </row>
-    <row r="97" ht="17.25" customHeight="1">
-      <c r="F97" t="n">
-        <v>8094.892</v>
-      </c>
-      <c r="G97" t="n">
-        <v>7975.041</v>
-      </c>
-      <c r="I97" t="n">
-        <v>65</v>
-      </c>
-      <c r="J97" t="n">
-        <v>65</v>
-      </c>
-      <c r="L97" t="n">
-        <v>28</v>
-      </c>
-      <c r="M97" t="n">
-        <v>28</v>
-      </c>
-      <c r="O97" t="n">
-        <v>896</v>
-      </c>
-      <c r="P97" t="n">
-        <v>896</v>
-      </c>
-      <c r="R97" t="n">
-        <v>1</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U97" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V97" t="n">
-        <v>4</v>
-      </c>
-      <c r="X97" t="n">
-        <v>2.304</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>3.386</v>
-      </c>
-    </row>
-    <row r="98" ht="17.25" customHeight="1">
-      <c r="F98" t="n">
-        <v>8510.379999999999</v>
-      </c>
-      <c r="G98" t="n">
-        <v>8183.131</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>65</v>
-      </c>
-      <c r="L98" t="n">
-        <v>29</v>
-      </c>
-      <c r="M98" t="n">
-        <v>29</v>
-      </c>
-      <c r="O98" t="n">
-        <v>896</v>
-      </c>
-      <c r="P98" t="n">
-        <v>896</v>
-      </c>
-      <c r="R98" t="n">
-        <v>1</v>
-      </c>
-      <c r="S98" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U98" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V98" t="n">
-        <v>4</v>
-      </c>
-      <c r="X98" t="n">
-        <v>2.423</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>3.557</v>
-      </c>
-    </row>
-    <row r="99" ht="17.25" customHeight="1">
-      <c r="F99" t="n">
-        <v>8935.861999999999</v>
-      </c>
-      <c r="G99" t="n">
-        <v>8391.177</v>
-      </c>
-      <c r="I99" t="n">
-        <v>65</v>
-      </c>
-      <c r="J99" t="n">
-        <v>65</v>
-      </c>
-      <c r="L99" t="n">
-        <v>30</v>
-      </c>
-      <c r="M99" t="n">
-        <v>30</v>
-      </c>
-      <c r="O99" t="n">
-        <v>896</v>
-      </c>
-      <c r="P99" t="n">
-        <v>896</v>
-      </c>
-      <c r="R99" t="n">
-        <v>1</v>
-      </c>
-      <c r="S99" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U99" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V99" t="n">
-        <v>4</v>
-      </c>
-      <c r="X99" t="n">
-        <v>2.541</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>3.729</v>
-      </c>
-    </row>
-    <row r="100" ht="17.25" customHeight="1">
-      <c r="F100" t="n">
-        <v>9371.32</v>
-      </c>
-      <c r="G100" t="n">
-        <v>8599.179</v>
-      </c>
-      <c r="I100" t="n">
-        <v>65</v>
-      </c>
-      <c r="J100" t="n">
-        <v>65</v>
-      </c>
-      <c r="L100" t="n">
-        <v>31</v>
-      </c>
-      <c r="M100" t="n">
-        <v>31</v>
-      </c>
-      <c r="O100" t="n">
-        <v>896</v>
-      </c>
-      <c r="P100" t="n">
-        <v>896</v>
-      </c>
-      <c r="R100" t="n">
-        <v>1</v>
-      </c>
-      <c r="S100" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="U100" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="V100" t="n">
-        <v>4</v>
-      </c>
-      <c r="X100" t="n">
+      <c r="X100" s="34" t="n">
         <v>2.66</v>
       </c>
-      <c r="Y100" t="n">
+      <c r="Y100" s="34" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -3754,16 +4012,20 @@
           <t>Thermal &amp; Ventilation Management (factoring in ambient temp at location)</t>
         </is>
       </c>
-      <c r="F113" s="82" t="n">
-        <v>0.01</v>
+      <c r="F113" s="82" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
       </c>
       <c r="G113" s="60" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H113" s="82" t="n">
-        <v>0.01</v>
+      <c r="H113" s="82" t="inlineStr">
+        <is>
+          <t>1.00%</t>
+        </is>
       </c>
       <c r="I113" s="60" t="inlineStr">
         <is>
@@ -3783,16 +4045,20 @@
           <t>Battery RTE</t>
         </is>
       </c>
-      <c r="F115" s="59" t="n">
-        <v>0.55</v>
+      <c r="F115" s="59" t="inlineStr">
+        <is>
+          <t>55.00%</t>
+        </is>
       </c>
       <c r="G115" s="60" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="H115" s="59" t="n">
-        <v>0.55</v>
+      <c r="H115" s="59" t="inlineStr">
+        <is>
+          <t>55.00%</t>
+        </is>
       </c>
       <c r="I115" s="60" t="inlineStr">
         <is>
@@ -3862,22 +4128,22 @@
     </row>
     <row r="122" ht="17.25" customHeight="1">
       <c r="D122" s="7" t="n"/>
-      <c r="F122" s="103" t="inlineStr">
+      <c r="F122" s="102" t="inlineStr">
         <is>
           <t>AZA zinc air chemistry</t>
         </is>
       </c>
-      <c r="G122" s="104" t="n"/>
-      <c r="H122" s="104" t="n"/>
-      <c r="I122" s="105" t="n"/>
-      <c r="J122" s="103" t="inlineStr">
+      <c r="G122" s="103" t="n"/>
+      <c r="H122" s="103" t="n"/>
+      <c r="I122" s="104" t="n"/>
+      <c r="J122" s="102" t="inlineStr">
         <is>
           <t>LFP chemistry</t>
         </is>
       </c>
-      <c r="K122" s="104" t="n"/>
-      <c r="L122" s="104" t="n"/>
-      <c r="M122" s="105" t="n"/>
+      <c r="K122" s="103" t="n"/>
+      <c r="L122" s="103" t="n"/>
+      <c r="M122" s="104" t="n"/>
     </row>
     <row r="123" ht="17.25" customHeight="1">
       <c r="F123" s="61" t="inlineStr">
@@ -3915,8 +4181,10 @@
           <t>years</t>
         </is>
       </c>
-      <c r="H124" s="83" t="n">
-        <v>1966469.865</v>
+      <c r="H124" s="83" t="inlineStr">
+        <is>
+          <t>1,966,469.86</t>
+        </is>
       </c>
       <c r="I124" s="60" t="inlineStr">
         <is>
@@ -3929,8 +4197,10 @@
           <t>years</t>
         </is>
       </c>
-      <c r="L124" s="83" t="n">
-        <v>2244607.3627</v>
+      <c r="L124" s="83" t="inlineStr">
+        <is>
+          <t>2,244,607.36</t>
+        </is>
       </c>
       <c r="M124" s="60" t="inlineStr">
         <is>
@@ -4012,8 +4282,10 @@
           <t>years</t>
         </is>
       </c>
-      <c r="H127" s="83" t="n">
-        <v>5243.9196</v>
+      <c r="H127" s="83" t="inlineStr">
+        <is>
+          <t>5,243.92</t>
+        </is>
       </c>
       <c r="I127" s="60" t="inlineStr">
         <is>
@@ -4026,8 +4298,10 @@
           <t>years</t>
         </is>
       </c>
-      <c r="L127" s="83" t="n">
-        <v>5985.6196</v>
+      <c r="L127" s="83" t="inlineStr">
+        <is>
+          <t>5,985.62</t>
+        </is>
       </c>
       <c r="M127" s="60" t="inlineStr">
         <is>
@@ -4342,16 +4616,20 @@
           <t>Labor cost</t>
         </is>
       </c>
-      <c r="F145" s="48" t="n">
-        <v>72.3334</v>
+      <c r="F145" s="48" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
       </c>
       <c r="G145" s="60" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="H145" s="48" t="n">
-        <v>72.3334</v>
+      <c r="H145" s="48" t="inlineStr">
+        <is>
+          <t>72.33</t>
+        </is>
       </c>
       <c r="I145" s="60" t="inlineStr">
         <is>
